--- a/会计科目/会计借贷方含义.xlsx
+++ b/会计科目/会计借贷方含义.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="141">
   <si>
     <t>按利润总额计提的所得税款</t>
   </si>
@@ -431,6 +431,14 @@
   </si>
   <si>
     <t>常用会计科目表</t>
+  </si>
+  <si>
+    <t>资产减值准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产备抵科目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -642,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -652,6 +660,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -679,6 +693,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -981,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -994,14 +1017,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1024,7 +1047,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1033,549 +1056,543 @@
       <c r="C3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="15" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F24" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="10" t="s">
+    <row r="29" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="F41" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="1" t="s">
+    <row r="42" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="1" t="s">
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="1" t="s">
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
-      <c r="B44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>17</v>
@@ -1584,36 +1601,36 @@
         <v>18</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+    <row r="46" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>18</v>
@@ -1622,16 +1639,16 @@
         <v>17</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
       <c r="B47" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>18</v>
@@ -1644,12 +1661,12 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>18</v>
@@ -1658,208 +1675,229 @@
         <v>17</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+    <row r="50" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D50" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E50" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F50" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="1" t="s">
+    <row r="51" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="1" t="s">
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-    </row>
-    <row r="52" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="1" t="s">
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+    </row>
+    <row r="53" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
+      <c r="B53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="1" t="s">
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
+      <c r="B54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D54" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E54" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F54" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="1" t="s">
+    <row r="55" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="10"/>
+      <c r="B55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="1" t="s">
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
+      <c r="B56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
-      <c r="B56" s="1" t="s">
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
+      <c r="B57" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
-      <c r="B57" s="1" t="s">
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+    </row>
+    <row r="58" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-      <c r="B58" s="1" t="s">
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="10"/>
+      <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
-      <c r="B59" s="1" t="s">
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="10"/>
+      <c r="B60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-    </row>
-    <row r="60" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="1" t="s">
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="10"/>
+      <c r="B61" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
-      <c r="B61" s="1" t="s">
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="11"/>
+      <c r="B62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A49:A61"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="E49:E52"/>
-    <mergeCell ref="F49:F52"/>
-    <mergeCell ref="D53:D61"/>
-    <mergeCell ref="E53:E61"/>
-    <mergeCell ref="F53:F61"/>
-    <mergeCell ref="A28:A39"/>
-    <mergeCell ref="D28:D39"/>
-    <mergeCell ref="E28:E39"/>
-    <mergeCell ref="F28:F39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F40:F42"/>
+  <mergeCells count="30">
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A62"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="D54:D62"/>
+    <mergeCell ref="E54:E62"/>
+    <mergeCell ref="F54:F62"/>
+    <mergeCell ref="A29:A40"/>
+    <mergeCell ref="D29:D40"/>
+    <mergeCell ref="E29:E40"/>
+    <mergeCell ref="F29:F40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="F41:F43"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A27"/>
+    <mergeCell ref="A3:A28"/>
     <mergeCell ref="D3:D12"/>
     <mergeCell ref="E3:E12"/>
     <mergeCell ref="F3:F12"/>
-    <mergeCell ref="D13:D20"/>
-    <mergeCell ref="E13:E20"/>
-    <mergeCell ref="F13:F20"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="D13:D21"/>
+    <mergeCell ref="E13:E21"/>
+    <mergeCell ref="F13:F21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
